--- a/Code/Results/Cases/Case_0_208/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_208/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.05082780869778958</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.587935439119576</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.4337108047706835</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>15.35937103487163</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00232465982370457</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.04451129091683015</v>
+      </c>
+      <c r="D3">
+        <v>1.394691484861312</v>
+      </c>
+      <c r="E3">
+        <v>0.3720301903175738</v>
+      </c>
+      <c r="F3">
+        <v>13.61668471206468</v>
+      </c>
+      <c r="G3">
+        <v>0.002366128417663905</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.04075572593568211</v>
+      </c>
+      <c r="D4">
+        <v>1.279982332087059</v>
+      </c>
+      <c r="E4">
+        <v>0.3352636496169339</v>
+      </c>
+      <c r="F4">
+        <v>12.58377525787688</v>
+      </c>
+      <c r="G4">
+        <v>0.002392268614168138</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.03925220185020351</v>
+      </c>
+      <c r="D5">
+        <v>1.23410259685437</v>
+      </c>
+      <c r="E5">
+        <v>0.320518095399791</v>
+      </c>
+      <c r="F5">
+        <v>12.17105239551415</v>
+      </c>
+      <c r="G5">
+        <v>0.002403102643874888</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.03900405910246718</v>
+      </c>
+      <c r="D6">
+        <v>1.226533116350879</v>
+      </c>
+      <c r="E6">
+        <v>0.3180828164067151</v>
+      </c>
+      <c r="F6">
+        <v>12.10298422003791</v>
+      </c>
+      <c r="G6">
+        <v>0.002404912903849699</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.040735344921913</v>
+      </c>
+      <c r="D7">
+        <v>1.27936023608612</v>
+      </c>
+      <c r="E7">
+        <v>0.3350638766899579</v>
+      </c>
+      <c r="F7">
+        <v>12.57817735867428</v>
+      </c>
+      <c r="G7">
+        <v>0.002392413976467302</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.04862184836730421</v>
+      </c>
+      <c r="D8">
+        <v>1.520405846136441</v>
+      </c>
+      <c r="E8">
+        <v>0.4121877556383424</v>
+      </c>
+      <c r="F8">
+        <v>14.75006782143726</v>
+      </c>
+      <c r="G8">
+        <v>0.002338824474469139</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.06526794889929022</v>
+      </c>
+      <c r="D9">
+        <v>2.03094383740779</v>
+      </c>
+      <c r="E9">
+        <v>0.5743263286455829</v>
+      </c>
+      <c r="F9">
+        <v>19.36239679305118</v>
+      </c>
+      <c r="G9">
+        <v>0.002238546243647226</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.07855583575620528</v>
+      </c>
+      <c r="D10">
+        <v>2.439875830719757</v>
+      </c>
+      <c r="E10">
+        <v>0.7035939178779529</v>
+      </c>
+      <c r="F10">
+        <v>23.06291354783582</v>
+      </c>
+      <c r="G10">
+        <v>0.002166875801212601</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.08492423161729334</v>
+      </c>
+      <c r="D11">
+        <v>2.636244627474298</v>
+      </c>
+      <c r="E11">
+        <v>0.7655790472318813</v>
+      </c>
+      <c r="F11">
+        <v>24.84081953837085</v>
+      </c>
+      <c r="G11">
+        <v>0.002134451769448988</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.08739198377865875</v>
+      </c>
+      <c r="D12">
+        <v>2.712400507405277</v>
+      </c>
+      <c r="E12">
+        <v>0.78960977157125</v>
+      </c>
+      <c r="F12">
+        <v>25.5304178963454</v>
+      </c>
+      <c r="G12">
+        <v>0.002122173376875364</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.0868578367251871</v>
+      </c>
+      <c r="D13">
+        <v>2.695913569071422</v>
+      </c>
+      <c r="E13">
+        <v>0.7844076676555858</v>
+      </c>
+      <c r="F13">
+        <v>25.38112397652355</v>
+      </c>
+      <c r="G13">
+        <v>0.002124818219658898</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.08512606721409099</v>
+      </c>
+      <c r="D14">
+        <v>2.642472056481665</v>
+      </c>
+      <c r="E14">
+        <v>0.7675442295745114</v>
+      </c>
+      <c r="F14">
+        <v>24.89720795841481</v>
+      </c>
+      <c r="G14">
+        <v>0.002133441786964219</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.08407294254254793</v>
+      </c>
+      <c r="D15">
+        <v>2.609981553983857</v>
+      </c>
+      <c r="E15">
+        <v>0.7572909333297275</v>
+      </c>
+      <c r="F15">
+        <v>24.6030147236695</v>
+      </c>
+      <c r="G15">
+        <v>0.00213872310390482</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.07814694154777158</v>
+      </c>
+      <c r="D16">
+        <v>2.427275797118796</v>
+      </c>
+      <c r="E16">
+        <v>0.6996152313669057</v>
+      </c>
+      <c r="F16">
+        <v>22.94884865281654</v>
+      </c>
+      <c r="G16">
+        <v>0.00216899628965242</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.07460073068631345</v>
+      </c>
+      <c r="D17">
+        <v>2.318042127616991</v>
+      </c>
+      <c r="E17">
+        <v>0.6651135423138896</v>
+      </c>
+      <c r="F17">
+        <v>21.96007946764132</v>
+      </c>
+      <c r="G17">
+        <v>0.002187596850822637</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.07259083666454558</v>
+      </c>
+      <c r="D18">
+        <v>2.256165884709617</v>
+      </c>
+      <c r="E18">
+        <v>0.6455613947070589</v>
+      </c>
+      <c r="F18">
+        <v>21.40007033883069</v>
+      </c>
+      <c r="G18">
+        <v>0.002198314070440401</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.07191517339292375</v>
+      </c>
+      <c r="D19">
+        <v>2.235370723326923</v>
+      </c>
+      <c r="E19">
+        <v>0.6389888138067619</v>
+      </c>
+      <c r="F19">
+        <v>21.21188036752415</v>
+      </c>
+      <c r="G19">
+        <v>0.002201946656104252</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.0749750834446985</v>
+      </c>
+      <c r="D20">
+        <v>2.329569657974844</v>
+      </c>
+      <c r="E20">
+        <v>0.6687553838333145</v>
+      </c>
+      <c r="F20">
+        <v>22.06441644790709</v>
+      </c>
+      <c r="G20">
+        <v>0.002185615029587183</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.08563311900770998</v>
+      </c>
+      <c r="D21">
+        <v>2.658117643864557</v>
+      </c>
+      <c r="E21">
+        <v>0.7724813725077126</v>
+      </c>
+      <c r="F21">
+        <v>25.03887762737429</v>
+      </c>
+      <c r="G21">
+        <v>0.002130909070141057</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.09293215048403169</v>
+      </c>
+      <c r="D22">
+        <v>2.883497026066834</v>
+      </c>
+      <c r="E22">
+        <v>0.8435890823424756</v>
+      </c>
+      <c r="F22">
+        <v>27.07982090779558</v>
+      </c>
+      <c r="G22">
+        <v>0.002095139035673209</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.08900231179872264</v>
+      </c>
+      <c r="D23">
+        <v>2.762114490110548</v>
+      </c>
+      <c r="E23">
+        <v>0.8052951462885289</v>
+      </c>
+      <c r="F23">
+        <v>25.98060131732291</v>
+      </c>
+      <c r="G23">
+        <v>0.002114241604775959</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.07480574934379547</v>
+      </c>
+      <c r="D24">
+        <v>2.324355206976861</v>
+      </c>
+      <c r="E24">
+        <v>0.6671080321128215</v>
+      </c>
+      <c r="F24">
+        <v>22.01721958779046</v>
+      </c>
+      <c r="G24">
+        <v>0.002186510935998998</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.06060661489983943</v>
+      </c>
+      <c r="D25">
+        <v>1.88776885282806</v>
+      </c>
+      <c r="E25">
+        <v>0.5289692784239577</v>
+      </c>
+      <c r="F25">
+        <v>18.06777367295683</v>
+      </c>
+      <c r="G25">
+        <v>0.002265246680121333</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
